--- a/scoresheets_dirty/EFQ_Scoresheet.xlsx
+++ b/scoresheets_dirty/EFQ_Scoresheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenpictor/Desktop/BAM-data-cleaning/scoresheets_tocheck/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C859CF3-7CB2-AE48-BAD6-489EC845E9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B488294-71F5-FB48-836C-22379DDF6746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15740" xr2:uid="{997E3381-58D2-8F42-82F4-13846D810F39}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="111">
   <si>
     <t>raw_vars</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>average of EFQ Fear of Social Eating questions</t>
+  </si>
+  <si>
+    <t>recode</t>
+  </si>
+  <si>
+    <t>Not at all = 0, 2=1,  3=2, 4=3, 5=4, 6=5, Very much so = 6</t>
   </si>
 </sst>
 </file>
@@ -729,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7308F9-F148-F248-A8CF-73AEFF3C6044}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1662,7 +1668,7 @@
         <v>38</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -1670,8 +1676,8 @@
       <c r="F27" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>32</v>
+      <c r="G27" t="s">
+        <v>110</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>32</v>
@@ -1697,7 +1703,7 @@
         <v>39</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -1705,8 +1711,8 @@
       <c r="F28" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>32</v>
+      <c r="G28" t="s">
+        <v>110</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>32</v>
@@ -1732,7 +1738,7 @@
         <v>40</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -1740,8 +1746,8 @@
       <c r="F29" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>32</v>
+      <c r="G29" t="s">
+        <v>110</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>32</v>
@@ -1767,7 +1773,7 @@
         <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
@@ -1775,8 +1781,8 @@
       <c r="F30" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>32</v>
+      <c r="G30" t="s">
+        <v>110</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>32</v>
@@ -1802,7 +1808,7 @@
         <v>42</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
@@ -1810,8 +1816,8 @@
       <c r="F31" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>32</v>
+      <c r="G31" t="s">
+        <v>110</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>32</v>
@@ -1837,7 +1843,7 @@
         <v>43</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
@@ -1845,8 +1851,8 @@
       <c r="F32" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>32</v>
+      <c r="G32" t="s">
+        <v>110</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>32</v>
@@ -1872,7 +1878,7 @@
         <v>44</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
@@ -1880,8 +1886,8 @@
       <c r="F33" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>32</v>
+      <c r="G33" t="s">
+        <v>110</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>32</v>
@@ -1907,7 +1913,7 @@
         <v>45</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
@@ -1915,8 +1921,8 @@
       <c r="F34" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>32</v>
+      <c r="G34" t="s">
+        <v>110</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>32</v>
@@ -1942,7 +1948,7 @@
         <v>46</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
@@ -1950,8 +1956,8 @@
       <c r="F35" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>32</v>
+      <c r="G35" t="s">
+        <v>110</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>32</v>
@@ -1977,7 +1983,7 @@
         <v>47</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
@@ -1985,8 +1991,8 @@
       <c r="F36" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>32</v>
+      <c r="G36" t="s">
+        <v>110</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>32</v>
@@ -2012,7 +2018,7 @@
         <v>48</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E37" s="1">
         <v>2</v>
@@ -2020,8 +2026,8 @@
       <c r="F37" t="s">
         <v>37</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>32</v>
+      <c r="G37" t="s">
+        <v>110</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>32</v>
@@ -2047,7 +2053,7 @@
         <v>49</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
@@ -2055,8 +2061,8 @@
       <c r="F38" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>32</v>
+      <c r="G38" t="s">
+        <v>110</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>32</v>
@@ -2082,7 +2088,7 @@
         <v>50</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
@@ -2090,8 +2096,8 @@
       <c r="F39" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>32</v>
+      <c r="G39" t="s">
+        <v>110</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>32</v>
@@ -2117,7 +2123,7 @@
         <v>51</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
@@ -2125,8 +2131,8 @@
       <c r="F40" t="s">
         <v>37</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>32</v>
+      <c r="G40" t="s">
+        <v>110</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>32</v>
@@ -2152,7 +2158,7 @@
         <v>52</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
@@ -2160,8 +2166,8 @@
       <c r="F41" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>32</v>
+      <c r="G41" t="s">
+        <v>110</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>32</v>
@@ -2187,7 +2193,7 @@
         <v>53</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
@@ -2195,8 +2201,8 @@
       <c r="F42" t="s">
         <v>37</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>32</v>
+      <c r="G42" t="s">
+        <v>110</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>32</v>
@@ -2222,7 +2228,7 @@
         <v>54</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
@@ -2230,8 +2236,8 @@
       <c r="F43" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>32</v>
+      <c r="G43" t="s">
+        <v>110</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>32</v>
@@ -2257,7 +2263,7 @@
         <v>55</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
@@ -2265,8 +2271,8 @@
       <c r="F44" t="s">
         <v>37</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>32</v>
+      <c r="G44" t="s">
+        <v>110</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>32</v>
@@ -2292,7 +2298,7 @@
         <v>56</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
@@ -2300,8 +2306,8 @@
       <c r="F45" t="s">
         <v>37</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>32</v>
+      <c r="G45" t="s">
+        <v>110</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>32</v>
@@ -2327,7 +2333,7 @@
         <v>57</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E46" s="1">
         <v>2</v>
@@ -2335,8 +2341,8 @@
       <c r="F46" t="s">
         <v>37</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>32</v>
+      <c r="G46" t="s">
+        <v>110</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>32</v>
